--- a/teaching/traditional_assets/database/data/brazil/brazil_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_drugs_biotechnology.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-7.938596491228071</v>
+        <v>-1.489514066496164</v>
       </c>
       <c r="H2">
-        <v>-7.938596491228071</v>
+        <v>-1.572890025575448</v>
       </c>
       <c r="I2">
-        <v>-10.08771929824561</v>
+        <v>-1.103580562659846</v>
       </c>
       <c r="J2">
-        <v>-10.08771929824561</v>
+        <v>-1.103580562659846</v>
       </c>
       <c r="K2">
-        <v>-13.3</v>
+        <v>-10.3</v>
       </c>
       <c r="L2">
-        <v>-11.66666666666667</v>
+        <v>-1.317135549872123</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.27</v>
+        <v>2.04</v>
       </c>
       <c r="V2">
-        <v>0.01744</v>
+        <v>0.009649952696310311</v>
       </c>
       <c r="W2">
-        <v>-0.4586206896551724</v>
+        <v>-0.6602564102564104</v>
       </c>
       <c r="X2">
-        <v>0.1486669971562242</v>
+        <v>0.09087725862885132</v>
       </c>
       <c r="Y2">
-        <v>-0.6072876868113966</v>
+        <v>-0.7511336688852617</v>
       </c>
       <c r="Z2">
-        <v>0.01790482173708183</v>
+        <v>0.1578841106400161</v>
       </c>
       <c r="AA2">
-        <v>-0.1806188157688079</v>
+        <v>-0.1742378356551585</v>
       </c>
       <c r="AB2">
-        <v>0.1305359632206022</v>
+        <v>0.08321196620529456</v>
       </c>
       <c r="AC2">
-        <v>-0.3111547789894101</v>
+        <v>-0.2574498018604531</v>
       </c>
       <c r="AD2">
-        <v>37.2</v>
+        <v>33.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>37.2</v>
+        <v>33.3</v>
       </c>
       <c r="AG2">
-        <v>33.93</v>
+        <v>31.26</v>
       </c>
       <c r="AH2">
-        <v>0.1655540720961282</v>
+        <v>0.1360850020433183</v>
       </c>
       <c r="AI2">
-        <v>0.7045454545454546</v>
+        <v>0.6330798479087453</v>
       </c>
       <c r="AJ2">
-        <v>0.1532312694756808</v>
+        <v>0.1288222203906701</v>
       </c>
       <c r="AK2">
-        <v>0.6850393700787402</v>
+        <v>0.6182753164556961</v>
       </c>
       <c r="AL2">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="AM2">
-        <v>1.52</v>
+        <v>1.375</v>
       </c>
       <c r="AN2">
-        <v>-3.412844036697248</v>
+        <v>-4.710042432814709</v>
       </c>
       <c r="AO2">
-        <v>-4.52755905511811</v>
+        <v>-4.664864864864865</v>
       </c>
       <c r="AP2">
-        <v>-3.112844036697247</v>
+        <v>-4.421499292786421</v>
       </c>
       <c r="AQ2">
-        <v>-7.565789473684211</v>
+        <v>-6.276363636363637</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-7.938596491228071</v>
+        <v>-1.489514066496164</v>
       </c>
       <c r="H3">
-        <v>-7.938596491228071</v>
+        <v>-1.572890025575448</v>
       </c>
       <c r="I3">
-        <v>-10.08771929824561</v>
+        <v>-1.103580562659846</v>
       </c>
       <c r="J3">
-        <v>-10.08771929824561</v>
+        <v>-1.103580562659846</v>
       </c>
       <c r="K3">
-        <v>-13.3</v>
+        <v>-10.3</v>
       </c>
       <c r="L3">
-        <v>-11.66666666666667</v>
+        <v>-1.317135549872123</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.27</v>
+        <v>2.04</v>
       </c>
       <c r="V3">
-        <v>0.01744</v>
+        <v>0.009649952696310311</v>
       </c>
       <c r="W3">
-        <v>-0.4586206896551724</v>
+        <v>-0.6602564102564104</v>
       </c>
       <c r="X3">
-        <v>0.1486669971562242</v>
+        <v>0.09087725862885132</v>
       </c>
       <c r="Y3">
-        <v>-0.6072876868113966</v>
+        <v>-0.7511336688852617</v>
       </c>
       <c r="Z3">
-        <v>0.01790482173708183</v>
+        <v>0.1578841106400161</v>
       </c>
       <c r="AA3">
-        <v>-0.1806188157688079</v>
+        <v>-0.1742378356551585</v>
       </c>
       <c r="AB3">
-        <v>0.1305359632206022</v>
+        <v>0.08321196620529456</v>
       </c>
       <c r="AC3">
-        <v>-0.3111547789894101</v>
+        <v>-0.2574498018604531</v>
       </c>
       <c r="AD3">
-        <v>37.2</v>
+        <v>33.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>37.2</v>
+        <v>33.3</v>
       </c>
       <c r="AG3">
-        <v>33.93</v>
+        <v>31.26</v>
       </c>
       <c r="AH3">
-        <v>0.1655540720961282</v>
+        <v>0.1360850020433183</v>
       </c>
       <c r="AI3">
-        <v>0.7045454545454546</v>
+        <v>0.6330798479087453</v>
       </c>
       <c r="AJ3">
-        <v>0.1532312694756808</v>
+        <v>0.1288222203906701</v>
       </c>
       <c r="AK3">
-        <v>0.6850393700787402</v>
+        <v>0.6182753164556961</v>
       </c>
       <c r="AL3">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="AM3">
-        <v>1.52</v>
+        <v>1.375</v>
       </c>
       <c r="AN3">
-        <v>-3.412844036697248</v>
+        <v>-4.710042432814709</v>
       </c>
       <c r="AO3">
-        <v>-4.52755905511811</v>
+        <v>-4.664864864864865</v>
       </c>
       <c r="AP3">
-        <v>-3.112844036697247</v>
+        <v>-4.421499292786421</v>
       </c>
       <c r="AQ3">
-        <v>-7.565789473684211</v>
+        <v>-6.276363636363637</v>
       </c>
     </row>
   </sheetData>
